--- a/WeatherForecasts/2021/Monthly/7-15_8-14.xlsx
+++ b/WeatherForecasts/2021/Monthly/7-15_8-14.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="3" documentId="11_FF7F58A24879EB6FE097C638BA5C471D32AB379D" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{98D48F90-23BE-4551-84BA-AAB3946828FE}"/>
   <bookViews>
-    <workbookView xWindow="24000" yWindow="450" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23955" yWindow="315" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -437,7 +437,7 @@
   <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B6" sqref="B6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
